--- a/appendix/mean_difference_accuracy_rest.xlsx
+++ b/appendix/mean_difference_accuracy_rest.xlsx
@@ -488,17 +488,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings vs. classical-best-tfidf</t>
+          <t>classical-best-embed vs. classical-best-tfidf</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.098</v>
+        <v>0.102</v>
       </c>
       <c r="D2" t="n">
-        <v>0.042</v>
+        <v>0.054</v>
       </c>
       <c r="E2" t="n">
         <v>0.06900000000000001</v>
@@ -513,10 +513,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.068</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -529,62 +529,62 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141</v>
+        <v>0.158</v>
       </c>
       <c r="E3" t="n">
-        <v>0.175</v>
+        <v>0.154</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16</v>
+        <v>0.151</v>
       </c>
       <c r="G3" t="n">
-        <v>0.166</v>
+        <v>0.157</v>
       </c>
       <c r="H3" t="n">
-        <v>0.187</v>
+        <v>0.183</v>
       </c>
       <c r="I3" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="J3" t="n">
-        <v>0.152</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>BERT-base vs. classical-best-embeddings</t>
+          <t>BERT-base vs. classical-best-embed</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.012</v>
+        <v>-0.011</v>
       </c>
       <c r="D4" t="n">
-        <v>0.099</v>
+        <v>0.104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.106</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.098</v>
+        <v>0.089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.113</v>
+        <v>0.104</v>
       </c>
       <c r="H4" t="n">
-        <v>0.099</v>
+        <v>0.095</v>
       </c>
       <c r="I4" t="n">
-        <v>0.073</v>
+        <v>0.067</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="5">
@@ -594,65 +594,65 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.244</v>
+        <v>0.258</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233</v>
+        <v>0.223</v>
       </c>
       <c r="E5" t="n">
-        <v>0.24</v>
+        <v>0.218</v>
       </c>
       <c r="F5" t="n">
-        <v>0.206</v>
+        <v>0.207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.198</v>
+        <v>0.195</v>
       </c>
       <c r="H5" t="n">
-        <v>0.214</v>
+        <v>0.212</v>
       </c>
       <c r="I5" t="n">
-        <v>0.231</v>
+        <v>0.226</v>
       </c>
       <c r="J5" t="n">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BERT-base-nli vs. classical-best-embeddings</t>
+          <t>BERT-base-nli vs. classical-best-embed</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.146</v>
+        <v>0.156</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191</v>
+        <v>0.169</v>
       </c>
       <c r="E6" t="n">
-        <v>0.171</v>
+        <v>0.149</v>
       </c>
       <c r="F6" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="G6" t="n">
-        <v>0.145</v>
+        <v>0.142</v>
       </c>
       <c r="H6" t="n">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
       <c r="I6" t="n">
-        <v>0.163</v>
+        <v>0.155</v>
       </c>
       <c r="J6" t="n">
-        <v>0.154</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="7">
@@ -662,28 +662,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.158</v>
+        <v>0.167</v>
       </c>
       <c r="D7" t="n">
-        <v>0.092</v>
+        <v>0.065</v>
       </c>
       <c r="E7" t="n">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="F7" t="n">
-        <v>0.046</v>
+        <v>0.056</v>
       </c>
       <c r="G7" t="n">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="H7" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>0.07000000000000001</v>
